--- a/tests/advanced/randomized_tests/b03.stpprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/b03.stpprocessed_rand_results_test.xlsx
@@ -582,28 +582,28 @@
         <v>41</v>
       </c>
       <c r="D2">
-        <v>7.949071004986763E-05</v>
+        <v>9.300047531723976E-05</v>
       </c>
       <c r="E2">
-        <v>0.02186354668810964</v>
+        <v>0.02935104304924607</v>
       </c>
       <c r="F2">
         <v>41</v>
       </c>
       <c r="G2">
-        <v>0.001829312648624182</v>
+        <v>0.001986057497560978</v>
       </c>
       <c r="H2">
-        <v>0.00265566585585475</v>
+        <v>0.003223590552806854</v>
       </c>
       <c r="I2">
-        <v>0.005188982933759689</v>
+        <v>0.00904684467241168</v>
       </c>
       <c r="J2">
-        <v>0.01017636293545365</v>
+        <v>0.01303208013996482</v>
       </c>
       <c r="K2">
-        <v>0.000594370998442173</v>
+        <v>0.0005951202474534512</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -615,28 +615,28 @@
         <v>41</v>
       </c>
       <c r="D3">
-        <v>0.002374547999352217</v>
+        <v>0.001821707934141159</v>
       </c>
       <c r="E3">
-        <v>0.03286191960796714</v>
+        <v>0.0384883820079267</v>
       </c>
       <c r="F3">
         <v>41</v>
       </c>
       <c r="G3">
-        <v>0.002375983167439699</v>
+        <v>0.00211058184504509</v>
       </c>
       <c r="H3">
-        <v>0.005737767554819584</v>
+        <v>0.005287864711135626</v>
       </c>
       <c r="I3">
-        <v>0.006974589079618454</v>
+        <v>0.01065425109118223</v>
       </c>
       <c r="J3">
-        <v>0.0151967890560627</v>
+        <v>0.01810852438211441</v>
       </c>
       <c r="K3">
-        <v>0.0007443595677614212</v>
+        <v>0.0006697354838252068</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -648,28 +648,28 @@
         <v>41</v>
       </c>
       <c r="D4">
-        <v>0.001922044903039932</v>
+        <v>0.001893142703920603</v>
       </c>
       <c r="E4">
-        <v>0.02931414591148496</v>
+        <v>0.04089202918112278</v>
       </c>
       <c r="F4">
         <v>41</v>
       </c>
       <c r="G4">
-        <v>0.001980762463063002</v>
+        <v>0.002154299523681402</v>
       </c>
       <c r="H4">
-        <v>0.004838255699723959</v>
+        <v>0.005448513198643923</v>
       </c>
       <c r="I4">
-        <v>0.00618109293282032</v>
+        <v>0.01037932513281703</v>
       </c>
       <c r="J4">
-        <v>0.01404956355690956</v>
+        <v>0.02038933522999287</v>
       </c>
       <c r="K4">
-        <v>0.0006607878021895885</v>
+        <v>0.0008129198104143143</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -681,28 +681,28 @@
         <v>41</v>
       </c>
       <c r="D5">
-        <v>0.0001102695241570473</v>
+        <v>0.0002007568255066872</v>
       </c>
       <c r="E5">
-        <v>0.02304306114092469</v>
+        <v>0.0332169309258461</v>
       </c>
       <c r="F5">
         <v>41</v>
       </c>
       <c r="G5">
-        <v>0.001788858324289322</v>
+        <v>0.002076467499136925</v>
       </c>
       <c r="H5">
-        <v>0.002730670850723982</v>
+        <v>0.003731935285031796</v>
       </c>
       <c r="I5">
-        <v>0.005919782910495996</v>
+        <v>0.01041060732677579</v>
       </c>
       <c r="J5">
-        <v>0.01044334471225739</v>
+        <v>0.01463561598211527</v>
       </c>
       <c r="K5">
-        <v>0.0006630034185945988</v>
+        <v>0.000726078636944294</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -714,28 +714,28 @@
         <v>133</v>
       </c>
       <c r="D6">
-        <v>0.003258479293435812</v>
+        <v>0.003246548119932413</v>
       </c>
       <c r="E6">
-        <v>0.1240787389688194</v>
+        <v>0.2083004242740571</v>
       </c>
       <c r="F6">
         <v>133</v>
       </c>
       <c r="G6">
-        <v>0.005035977344959974</v>
+        <v>0.005591671448200941</v>
       </c>
       <c r="H6">
-        <v>0.01173229468986392</v>
+        <v>0.01421883283182979</v>
       </c>
       <c r="I6">
-        <v>0.06972805084660649</v>
+        <v>0.1558146933093667</v>
       </c>
       <c r="J6">
-        <v>0.03057762328535318</v>
+        <v>0.02560384292155504</v>
       </c>
       <c r="K6">
-        <v>0.002212187275290489</v>
+        <v>0.002117430325597525</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -761,28 +761,28 @@
         <v>41</v>
       </c>
       <c r="D8">
-        <v>7.949071004986763E-05</v>
+        <v>9.300047531723976E-05</v>
       </c>
       <c r="E8">
-        <v>0.02186354668810964</v>
+        <v>0.02935104304924607</v>
       </c>
       <c r="F8">
         <v>41</v>
       </c>
       <c r="G8">
-        <v>0.001829312648624182</v>
+        <v>0.001986057497560978</v>
       </c>
       <c r="H8">
-        <v>0.00265566585585475</v>
+        <v>0.003223590552806854</v>
       </c>
       <c r="I8">
-        <v>0.005188982933759689</v>
+        <v>0.00904684467241168</v>
       </c>
       <c r="J8">
-        <v>0.01017636293545365</v>
+        <v>0.01303208013996482</v>
       </c>
       <c r="K8">
-        <v>0.000594370998442173</v>
+        <v>0.0005951202474534512</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -794,28 +794,28 @@
         <v>41</v>
       </c>
       <c r="D9">
-        <v>0.002374547999352217</v>
+        <v>0.001821707934141159</v>
       </c>
       <c r="E9">
-        <v>0.03286191960796714</v>
+        <v>0.0384883820079267</v>
       </c>
       <c r="F9">
         <v>41</v>
       </c>
       <c r="G9">
-        <v>0.002375983167439699</v>
+        <v>0.00211058184504509</v>
       </c>
       <c r="H9">
-        <v>0.005737767554819584</v>
+        <v>0.005287864711135626</v>
       </c>
       <c r="I9">
-        <v>0.006974589079618454</v>
+        <v>0.01065425109118223</v>
       </c>
       <c r="J9">
-        <v>0.0151967890560627</v>
+        <v>0.01810852438211441</v>
       </c>
       <c r="K9">
-        <v>0.0007443595677614212</v>
+        <v>0.0006697354838252068</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -827,28 +827,28 @@
         <v>41</v>
       </c>
       <c r="D10">
-        <v>0.001922044903039932</v>
+        <v>0.001893142703920603</v>
       </c>
       <c r="E10">
-        <v>0.02931414591148496</v>
+        <v>0.04089202918112278</v>
       </c>
       <c r="F10">
         <v>41</v>
       </c>
       <c r="G10">
-        <v>0.001980762463063002</v>
+        <v>0.002154299523681402</v>
       </c>
       <c r="H10">
-        <v>0.004838255699723959</v>
+        <v>0.005448513198643923</v>
       </c>
       <c r="I10">
-        <v>0.00618109293282032</v>
+        <v>0.01037932513281703</v>
       </c>
       <c r="J10">
-        <v>0.01404956355690956</v>
+        <v>0.02038933522999287</v>
       </c>
       <c r="K10">
-        <v>0.0006607878021895885</v>
+        <v>0.0008129198104143143</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -860,28 +860,28 @@
         <v>41</v>
       </c>
       <c r="D11">
-        <v>0.0001102695241570473</v>
+        <v>0.0002007568255066872</v>
       </c>
       <c r="E11">
-        <v>0.02304306114092469</v>
+        <v>0.0332169309258461</v>
       </c>
       <c r="F11">
         <v>41</v>
       </c>
       <c r="G11">
-        <v>0.001788858324289322</v>
+        <v>0.002076467499136925</v>
       </c>
       <c r="H11">
-        <v>0.002730670850723982</v>
+        <v>0.003731935285031796</v>
       </c>
       <c r="I11">
-        <v>0.005919782910495996</v>
+        <v>0.01041060732677579</v>
       </c>
       <c r="J11">
-        <v>0.01044334471225739</v>
+        <v>0.01463561598211527</v>
       </c>
       <c r="K11">
-        <v>0.0006630034185945988</v>
+        <v>0.000726078636944294</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -893,28 +893,28 @@
         <v>133</v>
       </c>
       <c r="D12">
-        <v>0.003258479293435812</v>
+        <v>0.003246548119932413</v>
       </c>
       <c r="E12">
-        <v>0.1240787389688194</v>
+        <v>0.2083004242740571</v>
       </c>
       <c r="F12">
         <v>133</v>
       </c>
       <c r="G12">
-        <v>0.005035977344959974</v>
+        <v>0.005591671448200941</v>
       </c>
       <c r="H12">
-        <v>0.01173229468986392</v>
+        <v>0.01421883283182979</v>
       </c>
       <c r="I12">
-        <v>0.06972805084660649</v>
+        <v>0.1558146933093667</v>
       </c>
       <c r="J12">
-        <v>0.03057762328535318</v>
+        <v>0.02560384292155504</v>
       </c>
       <c r="K12">
-        <v>0.002212187275290489</v>
+        <v>0.002117430325597525</v>
       </c>
     </row>
     <row r="13" spans="1:11">

--- a/tests/advanced/randomized_tests/b03.stpprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/b03.stpprocessed_rand_results_test.xlsx
@@ -15,42 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Baseline-Kruskal</t>
   </si>
   <si>
-    <t>S*-BS</t>
-  </si>
-  <si>
     <t>S*-HS</t>
   </si>
   <si>
-    <t>S*-MM</t>
-  </si>
-  <si>
-    <t>S*-MM0</t>
-  </si>
-  <si>
-    <t>S*-unmerged</t>
-  </si>
-  <si>
     <t>var</t>
   </si>
   <si>
-    <t>S*-BSND</t>
-  </si>
-  <si>
     <t>S*-HSND</t>
-  </si>
-  <si>
-    <t>S*-MMND</t>
-  </si>
-  <si>
-    <t>S*-MM0ND</t>
-  </si>
-  <si>
-    <t>S*-unmergedND</t>
   </si>
   <si>
     <t>expanded_nodes</t>
@@ -444,13 +420,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,32 +439,8 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -499,33 +451,9 @@
         <v>140</v>
       </c>
       <c r="D2">
-        <v>140</v>
-      </c>
-      <c r="E2">
-        <v>140</v>
-      </c>
-      <c r="F2">
-        <v>140</v>
-      </c>
-      <c r="G2">
-        <v>140</v>
-      </c>
-      <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" t="b">
+      <c r="E2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -536,7 +464,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -544,395 +472,131 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="D2">
-        <v>9.300047531723976E-05</v>
+        <v>0.002428943756967783</v>
       </c>
       <c r="E2">
-        <v>0.02935104304924607</v>
+        <v>0.03508472163230181</v>
       </c>
       <c r="F2">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="G2">
-        <v>0.001986057497560978</v>
+        <v>0.003243054263293743</v>
       </c>
       <c r="H2">
-        <v>0.003223590552806854</v>
+        <v>0.006440960336476564</v>
       </c>
       <c r="I2">
-        <v>0.00904684467241168</v>
+        <v>0.01017338084056973</v>
       </c>
       <c r="J2">
-        <v>0.01303208013996482</v>
+        <v>0.01131532015278935</v>
       </c>
       <c r="K2">
-        <v>0.0005951202474534512</v>
+        <v>0.001588925253599882</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>41</v>
-      </c>
-      <c r="D3">
-        <v>0.001821707934141159</v>
+        <v>1250</v>
       </c>
       <c r="E3">
-        <v>0.0384883820079267</v>
-      </c>
-      <c r="F3">
-        <v>41</v>
-      </c>
-      <c r="G3">
-        <v>0.00211058184504509</v>
-      </c>
-      <c r="H3">
-        <v>0.005287864711135626</v>
-      </c>
-      <c r="I3">
-        <v>0.01065425109118223</v>
-      </c>
-      <c r="J3">
-        <v>0.01810852438211441</v>
-      </c>
-      <c r="K3">
-        <v>0.0006697354838252068</v>
+        <v>0.01168780401349068</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="D4">
-        <v>0.001893142703920603</v>
+        <v>0.002428943756967783</v>
       </c>
       <c r="E4">
-        <v>0.04089202918112278</v>
+        <v>0.03508472163230181</v>
       </c>
       <c r="F4">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="G4">
-        <v>0.002154299523681402</v>
+        <v>0.003243054263293743</v>
       </c>
       <c r="H4">
-        <v>0.005448513198643923</v>
+        <v>0.006440960336476564</v>
       </c>
       <c r="I4">
-        <v>0.01037932513281703</v>
+        <v>0.01017338084056973</v>
       </c>
       <c r="J4">
-        <v>0.02038933522999287</v>
+        <v>0.01131532015278935</v>
       </c>
       <c r="K4">
-        <v>0.0008129198104143143</v>
+        <v>0.001588925253599882</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>41</v>
-      </c>
-      <c r="D5">
-        <v>0.0002007568255066872</v>
+        <v>1250</v>
       </c>
       <c r="E5">
-        <v>0.0332169309258461</v>
-      </c>
-      <c r="F5">
-        <v>41</v>
-      </c>
-      <c r="G5">
-        <v>0.002076467499136925</v>
-      </c>
-      <c r="H5">
-        <v>0.003731935285031796</v>
-      </c>
-      <c r="I5">
-        <v>0.01041060732677579</v>
-      </c>
-      <c r="J5">
-        <v>0.01463561598211527</v>
-      </c>
-      <c r="K5">
-        <v>0.000726078636944294</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>133</v>
-      </c>
-      <c r="D6">
-        <v>0.003246548119932413</v>
-      </c>
-      <c r="E6">
-        <v>0.2083004242740571</v>
-      </c>
-      <c r="F6">
-        <v>133</v>
-      </c>
-      <c r="G6">
-        <v>0.005591671448200941</v>
-      </c>
-      <c r="H6">
-        <v>0.01421883283182979</v>
-      </c>
-      <c r="I6">
-        <v>0.1558146933093667</v>
-      </c>
-      <c r="J6">
-        <v>0.02560384292155504</v>
-      </c>
-      <c r="K6">
-        <v>0.002117430325597525</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7">
-        <v>1250</v>
-      </c>
-      <c r="E7">
-        <v>0.01168780401349068</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>41</v>
-      </c>
-      <c r="D8">
-        <v>9.300047531723976E-05</v>
-      </c>
-      <c r="E8">
-        <v>0.02935104304924607</v>
-      </c>
-      <c r="F8">
-        <v>41</v>
-      </c>
-      <c r="G8">
-        <v>0.001986057497560978</v>
-      </c>
-      <c r="H8">
-        <v>0.003223590552806854</v>
-      </c>
-      <c r="I8">
-        <v>0.00904684467241168</v>
-      </c>
-      <c r="J8">
-        <v>0.01303208013996482</v>
-      </c>
-      <c r="K8">
-        <v>0.0005951202474534512</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>41</v>
-      </c>
-      <c r="D9">
-        <v>0.001821707934141159</v>
-      </c>
-      <c r="E9">
-        <v>0.0384883820079267</v>
-      </c>
-      <c r="F9">
-        <v>41</v>
-      </c>
-      <c r="G9">
-        <v>0.00211058184504509</v>
-      </c>
-      <c r="H9">
-        <v>0.005287864711135626</v>
-      </c>
-      <c r="I9">
-        <v>0.01065425109118223</v>
-      </c>
-      <c r="J9">
-        <v>0.01810852438211441</v>
-      </c>
-      <c r="K9">
-        <v>0.0006697354838252068</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>41</v>
-      </c>
-      <c r="D10">
-        <v>0.001893142703920603</v>
-      </c>
-      <c r="E10">
-        <v>0.04089202918112278</v>
-      </c>
-      <c r="F10">
-        <v>41</v>
-      </c>
-      <c r="G10">
-        <v>0.002154299523681402</v>
-      </c>
-      <c r="H10">
-        <v>0.005448513198643923</v>
-      </c>
-      <c r="I10">
-        <v>0.01037932513281703</v>
-      </c>
-      <c r="J10">
-        <v>0.02038933522999287</v>
-      </c>
-      <c r="K10">
-        <v>0.0008129198104143143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>41</v>
-      </c>
-      <c r="D11">
-        <v>0.0002007568255066872</v>
-      </c>
-      <c r="E11">
-        <v>0.0332169309258461</v>
-      </c>
-      <c r="F11">
-        <v>41</v>
-      </c>
-      <c r="G11">
-        <v>0.002076467499136925</v>
-      </c>
-      <c r="H11">
-        <v>0.003731935285031796</v>
-      </c>
-      <c r="I11">
-        <v>0.01041060732677579</v>
-      </c>
-      <c r="J11">
-        <v>0.01463561598211527</v>
-      </c>
-      <c r="K11">
-        <v>0.000726078636944294</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>133</v>
-      </c>
-      <c r="D12">
-        <v>0.003246548119932413</v>
-      </c>
-      <c r="E12">
-        <v>0.2083004242740571</v>
-      </c>
-      <c r="F12">
-        <v>133</v>
-      </c>
-      <c r="G12">
-        <v>0.005591671448200941</v>
-      </c>
-      <c r="H12">
-        <v>0.01421883283182979</v>
-      </c>
-      <c r="I12">
-        <v>0.1558146933093667</v>
-      </c>
-      <c r="J12">
-        <v>0.02560384292155504</v>
-      </c>
-      <c r="K12">
-        <v>0.002117430325597525</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13">
-        <v>1250</v>
-      </c>
-      <c r="E13">
         <v>0.01168780401349068</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests/advanced/randomized_tests/b03.stpprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/b03.stpprocessed_rand_results_test.xlsx
@@ -15,18 +15,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>Baseline-Kruskal</t>
   </si>
   <si>
+    <t>S*-BS</t>
+  </si>
+  <si>
     <t>S*-HS</t>
   </si>
   <si>
+    <t>S*-MM</t>
+  </si>
+  <si>
+    <t>S*-MM0</t>
+  </si>
+  <si>
+    <t>S*-BS-UN</t>
+  </si>
+  <si>
+    <t>S*-HS-UN</t>
+  </si>
+  <si>
+    <t>S*-MM-UN</t>
+  </si>
+  <si>
+    <t>S*-MM0-UN</t>
+  </si>
+  <si>
     <t>var</t>
   </si>
   <si>
+    <t>S*-BSND</t>
+  </si>
+  <si>
     <t>S*-HSND</t>
+  </si>
+  <si>
+    <t>S*-MMND</t>
+  </si>
+  <si>
+    <t>S*-MM0ND</t>
+  </si>
+  <si>
+    <t>S*-BS-UNND</t>
+  </si>
+  <si>
+    <t>S*-HS-UNND</t>
+  </si>
+  <si>
+    <t>S*-MM-UNND</t>
+  </si>
+  <si>
+    <t>S*-MM0-UNND</t>
   </si>
   <si>
     <t>expanded_nodes</t>
@@ -420,13 +462,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,8 +481,50 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -451,9 +535,51 @@
         <v>140</v>
       </c>
       <c r="D2">
+        <v>140</v>
+      </c>
+      <c r="E2">
+        <v>140</v>
+      </c>
+      <c r="F2">
+        <v>140</v>
+      </c>
+      <c r="G2">
+        <v>140</v>
+      </c>
+      <c r="H2">
+        <v>140</v>
+      </c>
+      <c r="I2">
+        <v>140</v>
+      </c>
+      <c r="J2">
+        <v>140</v>
+      </c>
+      <c r="K2">
         <v>0</v>
       </c>
-      <c r="E2" t="b">
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -464,7 +590,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -472,131 +598,593 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D2">
-        <v>0.002428943756967783</v>
+        <v>0.0002630110830068588</v>
       </c>
       <c r="E2">
-        <v>0.03508472163230181</v>
+        <v>0.03346197679638863</v>
       </c>
       <c r="F2">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="G2">
-        <v>0.003243054263293743</v>
+        <v>0.003999241627752781</v>
       </c>
       <c r="H2">
-        <v>0.006440960336476564</v>
+        <v>0.004173493944108486</v>
       </c>
       <c r="I2">
-        <v>0.01017338084056973</v>
+        <v>0.009845918510109186</v>
       </c>
       <c r="J2">
-        <v>0.01131532015278935</v>
+        <v>0.01139103434979916</v>
       </c>
       <c r="K2">
-        <v>0.001588925253599882</v>
+        <v>0.001631965395063162</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1250</v>
+        <v>64</v>
+      </c>
+      <c r="D3">
+        <v>0.004340540152043104</v>
       </c>
       <c r="E3">
-        <v>0.01168780401349068</v>
+        <v>0.05887394910678267</v>
+      </c>
+      <c r="F3">
+        <v>64</v>
+      </c>
+      <c r="G3">
+        <v>0.00568298576399684</v>
+      </c>
+      <c r="H3">
+        <v>0.01095907809212804</v>
+      </c>
+      <c r="I3">
+        <v>0.01617475925013423</v>
+      </c>
+      <c r="J3">
+        <v>0.0191911575384438</v>
+      </c>
+      <c r="K3">
+        <v>0.002782866824418306</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D4">
-        <v>0.002428943756967783</v>
+        <v>0.003093965817242861</v>
       </c>
       <c r="E4">
-        <v>0.03508472163230181</v>
+        <v>0.04723590100184083</v>
       </c>
       <c r="F4">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="G4">
-        <v>0.003243054263293743</v>
+        <v>0.004444218706339598</v>
       </c>
       <c r="H4">
-        <v>0.006440960336476564</v>
+        <v>0.007872194983065128</v>
       </c>
       <c r="I4">
-        <v>0.01017338084056973</v>
+        <v>0.01104670111089945</v>
       </c>
       <c r="J4">
-        <v>0.01131532015278935</v>
+        <v>0.01933229388669133</v>
       </c>
       <c r="K4">
-        <v>0.001588925253599882</v>
+        <v>0.001833053771406412</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C5">
+        <v>41</v>
+      </c>
+      <c r="D5">
+        <v>0.0001636352390050888</v>
+      </c>
+      <c r="E5">
+        <v>0.03662924095988274</v>
+      </c>
+      <c r="F5">
+        <v>41</v>
+      </c>
+      <c r="G5">
+        <v>0.003623993135988712</v>
+      </c>
+      <c r="H5">
+        <v>0.004188069608062506</v>
+      </c>
+      <c r="I5">
+        <v>0.009775663260370493</v>
+      </c>
+      <c r="J5">
+        <v>0.01518957689404488</v>
+      </c>
+      <c r="K5">
+        <v>0.001623297575861216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>133</v>
+      </c>
+      <c r="D6">
+        <v>0.0005879034288227558</v>
+      </c>
+      <c r="E6">
+        <v>0.1101230517961085</v>
+      </c>
+      <c r="F6">
+        <v>133</v>
+      </c>
+      <c r="G6">
+        <v>0.006433486938476562</v>
+      </c>
+      <c r="H6">
+        <v>0.00964557146653533</v>
+      </c>
+      <c r="I6">
+        <v>0.0739106060937047</v>
+      </c>
+      <c r="J6">
+        <v>0.01083152927458286</v>
+      </c>
+      <c r="K6">
+        <v>0.003851184621453285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>445</v>
+      </c>
+      <c r="D7">
+        <v>0.01015113200992346</v>
+      </c>
+      <c r="E7">
+        <v>0.4250742141157389</v>
+      </c>
+      <c r="F7">
+        <v>445</v>
+      </c>
+      <c r="G7">
+        <v>0.02002675551921129</v>
+      </c>
+      <c r="H7">
+        <v>0.03961189417168498</v>
+      </c>
+      <c r="I7">
+        <v>0.2972772857174277</v>
+      </c>
+      <c r="J7">
+        <v>0.0390982055105269</v>
+      </c>
+      <c r="K7">
+        <v>0.01191924000158906</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>133</v>
+      </c>
+      <c r="D8">
+        <v>0.005943612661212683</v>
+      </c>
+      <c r="E8">
+        <v>0.1469074473716319</v>
+      </c>
+      <c r="F8">
+        <v>133</v>
+      </c>
+      <c r="G8">
+        <v>0.007876276969909668</v>
+      </c>
+      <c r="H8">
+        <v>0.01749986037611961</v>
+      </c>
+      <c r="I8">
+        <v>0.08624423341825604</v>
+      </c>
+      <c r="J8">
+        <v>0.02441795915365219</v>
+      </c>
+      <c r="K8">
+        <v>0.004534668754786253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>133</v>
+      </c>
+      <c r="D9">
+        <v>0.0008812714368104935</v>
+      </c>
+      <c r="E9">
+        <v>0.1257854630239308</v>
+      </c>
+      <c r="F9">
+        <v>133</v>
+      </c>
+      <c r="G9">
+        <v>0.007729486096650362</v>
+      </c>
+      <c r="H9">
+        <v>0.01219296269118786</v>
+      </c>
+      <c r="I9">
+        <v>0.08322979463264346</v>
+      </c>
+      <c r="J9">
+        <v>0.01200802298262715</v>
+      </c>
+      <c r="K9">
+        <v>0.004428915679454803</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
         <v>1250</v>
       </c>
-      <c r="E5">
+      <c r="E10">
+        <v>0.01168780401349068</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>41</v>
+      </c>
+      <c r="D11">
+        <v>0.0002630110830068588</v>
+      </c>
+      <c r="E11">
+        <v>0.03346197679638863</v>
+      </c>
+      <c r="F11">
+        <v>41</v>
+      </c>
+      <c r="G11">
+        <v>0.003999241627752781</v>
+      </c>
+      <c r="H11">
+        <v>0.004173493944108486</v>
+      </c>
+      <c r="I11">
+        <v>0.009845918510109186</v>
+      </c>
+      <c r="J11">
+        <v>0.01139103434979916</v>
+      </c>
+      <c r="K11">
+        <v>0.001631965395063162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>64</v>
+      </c>
+      <c r="D12">
+        <v>0.004340540152043104</v>
+      </c>
+      <c r="E12">
+        <v>0.05887394910678267</v>
+      </c>
+      <c r="F12">
+        <v>64</v>
+      </c>
+      <c r="G12">
+        <v>0.00568298576399684</v>
+      </c>
+      <c r="H12">
+        <v>0.01095907809212804</v>
+      </c>
+      <c r="I12">
+        <v>0.01617475925013423</v>
+      </c>
+      <c r="J12">
+        <v>0.0191911575384438</v>
+      </c>
+      <c r="K12">
+        <v>0.002782866824418306</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>41</v>
+      </c>
+      <c r="D13">
+        <v>0.003093965817242861</v>
+      </c>
+      <c r="E13">
+        <v>0.04723590100184083</v>
+      </c>
+      <c r="F13">
+        <v>41</v>
+      </c>
+      <c r="G13">
+        <v>0.004444218706339598</v>
+      </c>
+      <c r="H13">
+        <v>0.007872194983065128</v>
+      </c>
+      <c r="I13">
+        <v>0.01104670111089945</v>
+      </c>
+      <c r="J13">
+        <v>0.01933229388669133</v>
+      </c>
+      <c r="K13">
+        <v>0.001833053771406412</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>41</v>
+      </c>
+      <c r="D14">
+        <v>0.0001636352390050888</v>
+      </c>
+      <c r="E14">
+        <v>0.03662924095988274</v>
+      </c>
+      <c r="F14">
+        <v>41</v>
+      </c>
+      <c r="G14">
+        <v>0.003623993135988712</v>
+      </c>
+      <c r="H14">
+        <v>0.004188069608062506</v>
+      </c>
+      <c r="I14">
+        <v>0.009775663260370493</v>
+      </c>
+      <c r="J14">
+        <v>0.01518957689404488</v>
+      </c>
+      <c r="K14">
+        <v>0.001623297575861216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>133</v>
+      </c>
+      <c r="D15">
+        <v>0.0005879034288227558</v>
+      </c>
+      <c r="E15">
+        <v>0.1101230517961085</v>
+      </c>
+      <c r="F15">
+        <v>133</v>
+      </c>
+      <c r="G15">
+        <v>0.006433486938476562</v>
+      </c>
+      <c r="H15">
+        <v>0.00964557146653533</v>
+      </c>
+      <c r="I15">
+        <v>0.0739106060937047</v>
+      </c>
+      <c r="J15">
+        <v>0.01083152927458286</v>
+      </c>
+      <c r="K15">
+        <v>0.003851184621453285</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>445</v>
+      </c>
+      <c r="D16">
+        <v>0.01015113200992346</v>
+      </c>
+      <c r="E16">
+        <v>0.4250742141157389</v>
+      </c>
+      <c r="F16">
+        <v>445</v>
+      </c>
+      <c r="G16">
+        <v>0.02002675551921129</v>
+      </c>
+      <c r="H16">
+        <v>0.03961189417168498</v>
+      </c>
+      <c r="I16">
+        <v>0.2972772857174277</v>
+      </c>
+      <c r="J16">
+        <v>0.0390982055105269</v>
+      </c>
+      <c r="K16">
+        <v>0.01191924000158906</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>133</v>
+      </c>
+      <c r="D17">
+        <v>0.005943612661212683</v>
+      </c>
+      <c r="E17">
+        <v>0.1469074473716319</v>
+      </c>
+      <c r="F17">
+        <v>133</v>
+      </c>
+      <c r="G17">
+        <v>0.007876276969909668</v>
+      </c>
+      <c r="H17">
+        <v>0.01749986037611961</v>
+      </c>
+      <c r="I17">
+        <v>0.08624423341825604</v>
+      </c>
+      <c r="J17">
+        <v>0.02441795915365219</v>
+      </c>
+      <c r="K17">
+        <v>0.004534668754786253</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>133</v>
+      </c>
+      <c r="D18">
+        <v>0.0008812714368104935</v>
+      </c>
+      <c r="E18">
+        <v>0.1257854630239308</v>
+      </c>
+      <c r="F18">
+        <v>133</v>
+      </c>
+      <c r="G18">
+        <v>0.007729486096650362</v>
+      </c>
+      <c r="H18">
+        <v>0.01219296269118786</v>
+      </c>
+      <c r="I18">
+        <v>0.08322979463264346</v>
+      </c>
+      <c r="J18">
+        <v>0.01200802298262715</v>
+      </c>
+      <c r="K18">
+        <v>0.004428915679454803</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19">
+        <v>1250</v>
+      </c>
+      <c r="E19">
         <v>0.01168780401349068</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
